--- a/dist/Badminton_score/Total_Stat.xlsx
+++ b/dist/Badminton_score/Total_Stat.xlsx
@@ -3097,6 +3097,8 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="583"/>
+          <c:min val="395"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3123,6 +3125,7 @@
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
